--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,7 +46,7 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>returned</t>
   </si>
   <si>
     <t>negative</t>
@@ -61,217 +61,214 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>pan</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
     <t>make</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>time</t>
@@ -638,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -757,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3023255813953488</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
@@ -807,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1297297297297297</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8828125</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +854,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8461538461538461</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +880,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +906,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8328173374613003</v>
+        <v>0.8281733746130031</v>
       </c>
       <c r="L8">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M8">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +932,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8260869565217391</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +958,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +984,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1013,13 +1010,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7045454545454546</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1039,13 +1036,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6938775510204082</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1065,13 +1062,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6926406926406926</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L14">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1091,13 +1088,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6571428571428571</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6542372881355932</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L16">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M16">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1143,13 +1140,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6342857142857142</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1169,13 +1166,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6301369863013698</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1195,13 +1192,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6147672552166934</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>766</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>766</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1221,13 +1218,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1247,13 +1244,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6243980738362761</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L21">
-        <v>778</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>778</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>468</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1273,13 +1270,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6197183098591549</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1299,13 +1296,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1325,13 +1322,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.578125</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1351,13 +1348,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5964912280701754</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1377,13 +1374,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5897435897435898</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1403,13 +1400,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1429,13 +1426,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1455,13 +1452,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5416666666666666</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1481,13 +1478,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5299145299145299</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1507,13 +1504,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5238095238095238</v>
+        <v>0.4910179640718563</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1533,13 +1530,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5230769230769231</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1559,13 +1556,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5149700598802395</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L33">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1585,13 +1582,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1603,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1611,13 +1608,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4939759036144578</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1629,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1637,13 +1634,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4903846153846154</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1663,13 +1660,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.481203007518797</v>
+        <v>0.44</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1681,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1689,13 +1686,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1715,7 +1712,7 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4426229508196721</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L39">
         <v>27</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1741,13 +1738,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4216867469879518</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L40">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1759,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1767,13 +1764,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4107142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1785,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1793,13 +1790,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.4</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1811,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1819,13 +1816,13 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3968253968253968</v>
+        <v>0.3458646616541353</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1845,13 +1842,13 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3870967741935484</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1863,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>38</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1871,13 +1868,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3383458646616541</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1900,10 +1897,10 @@
         <v>0.3235294117647059</v>
       </c>
       <c r="L46">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>276</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1923,13 +1920,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3229571984435798</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L47">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1941,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1949,13 +1946,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3157894736842105</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1967,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1975,13 +1972,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.3153153153153153</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L49">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2001,13 +1998,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.2976190476190476</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2019,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2027,13 +2024,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2805755395683453</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L51">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2045,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2053,13 +2050,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2780821917808219</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L52">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="M52">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2071,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>527</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2079,13 +2076,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2777777777777778</v>
+        <v>0.263013698630137</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2097,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>78</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2105,13 +2102,13 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2488038277511962</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L54">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="M54">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>157</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2131,13 +2128,13 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2475247524752475</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2149,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2157,13 +2154,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.232508073196986</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L56">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="M56">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2175,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>713</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2183,13 +2180,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2285714285714286</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2201,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2209,13 +2206,13 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2147651006711409</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2227,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2235,13 +2232,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2119205298013245</v>
+        <v>0.1981981981981982</v>
       </c>
       <c r="L59">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2253,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2261,13 +2258,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1818181818181818</v>
+        <v>0.1849529780564263</v>
       </c>
       <c r="L60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2279,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2287,13 +2284,13 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1748344370860927</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L61">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2305,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>623</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2313,13 +2310,13 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.1636828644501279</v>
+        <v>0.1774834437086093</v>
       </c>
       <c r="L62">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M62">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>654</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2339,13 +2336,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1443298969072165</v>
+        <v>0.1687979539641944</v>
       </c>
       <c r="L63">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="M63">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2357,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>249</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2365,13 +2362,13 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.1266846361185984</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L64">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M64">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2383,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>324</v>
+        <v>358</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2391,13 +2388,13 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.121654501216545</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="L65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M65">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2409,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>361</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2417,13 +2414,13 @@
         <v>75</v>
       </c>
       <c r="K66">
-        <v>0.1182266009852217</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2435,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2443,25 +2440,25 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1113636363636364</v>
+        <v>0.1108108108108108</v>
       </c>
       <c r="L67">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M67">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>391</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2469,13 +2466,13 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1111111111111111</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L68">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M68">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2487,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>240</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2521,13 +2518,13 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.1008403361344538</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="L70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2539,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2547,13 +2544,13 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.09307875894988067</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2565,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>380</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2573,13 +2570,13 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.08333333333333333</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L72">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2591,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2599,25 +2596,25 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.07173601147776183</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>647</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2625,25 +2622,25 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.06010928961748634</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="L74">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M74">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>344</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2651,13 +2648,13 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.05970149253731343</v>
+        <v>0.06529850746268656</v>
       </c>
       <c r="L75">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M75">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2669,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2677,13 +2674,13 @@
         <v>85</v>
       </c>
       <c r="K76">
-        <v>0.0583756345177665</v>
+        <v>0.04059040590405904</v>
       </c>
       <c r="L76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2695,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>371</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2703,51 +2700,25 @@
         <v>86</v>
       </c>
       <c r="K77">
-        <v>0.04066543438077634</v>
+        <v>0.02683982683982684</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
-      <c r="J78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K78">
-        <v>0.03025064822817632</v>
-      </c>
-      <c r="L78">
-        <v>35</v>
-      </c>
-      <c r="M78">
-        <v>35</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
